--- a/medicine/Mort/Acte_de_décès_en_droit_français/Acte_de_décès_en_droit_français.xlsx
+++ b/medicine/Mort/Acte_de_décès_en_droit_français/Acte_de_décès_en_droit_français.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acte_de_d%C3%A9c%C3%A8s_en_droit_fran%C3%A7ais</t>
+          <t>Acte_de_décès_en_droit_français</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un acte de décès est un acte juridique de l'état civil français. C'est un acte authentique, signé par un officier d'état civil, qui est établi à la mort d'une personne.
-Selon l'article 78 du code civil français : « L'acte de décès sera dressé par l'officier d'état civil de la commune de décès[1], sur la déclaration d'une personne possédant sur l'état civil du défunt les renseignements les plus exacts et les plus complets qu'il sera possible[2]. »
+Selon l'article 78 du code civil français : « L'acte de décès sera dressé par l'officier d'état civil de la commune de décès, sur la déclaration d'une personne possédant sur l'état civil du défunt les renseignements les plus exacts et les plus complets qu'il sera possible. »
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acte_de_d%C3%A9c%C3%A8s_en_droit_fran%C3%A7ais</t>
+          <t>Acte_de_décès_en_droit_français</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'acte de décès fait suite à l'acte de sépulture, enregistré jusqu'à la Révolution dans les paroisses. Le décret du 20 septembre 1792 définit l'acte de décès et son contenu (Titre V). Il doit notamment mentionner :
 les prénoms, nom, âge, profession et domicile du décédé
@@ -520,11 +534,11 @@
 les prénoms, nom, âge, profession et domicile des parents du décédé
 Depuis la loi du 28 octobre 1922, la date et lieu de naissance de la personne défunte doit également figurer dans l'acte de décès.
 L'acte de décès peut porter plusieurs mentions marginales :
-mention Mort pour la France (depuis le 2 juillet 1915)[3],
+mention Mort pour la France (depuis le 2 juillet 1915),
 mention de la référence constatant que le défunt est Mort pour la France (depuis 1945),
-mention Mort en déportation (depuis le 15 mai 1985)[3],
-mention Mort pour le service de la Nation (depuis le 21 décembre 2012)[4],
-mention Victime du terrorisme (depuis le 21 décembre 2012)[4],
+mention Mort en déportation (depuis le 15 mai 1985),
+mention Mort pour le service de la Nation (depuis le 21 décembre 2012),
+mention Victime du terrorisme (depuis le 21 décembre 2012),
 mention Mort pour le service de la République (depuis le 25 novembre 2021).</t>
         </is>
       </c>
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acte_de_d%C3%A9c%C3%A8s_en_droit_fran%C3%A7ais</t>
+          <t>Acte_de_décès_en_droit_français</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,9 +567,11 @@
           <t>Consultation des actes de décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, conformément à la loi du 15 juillet 2008 relative aux archives, tous les actes de décès sont librement communicables au public, quelles que soient leurs dates, et ce contrairement aux actes de naissance (sauf pour les extraits sans filiations) et de mariage qui ne sont communicables qu'au bout de 75 ans[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, conformément à la loi du 15 juillet 2008 relative aux archives, tous les actes de décès sont librement communicables au public, quelles que soient leurs dates, et ce contrairement aux actes de naissance (sauf pour les extraits sans filiations) et de mariage qui ne sont communicables qu'au bout de 75 ans.
 Ils peuvent être consultés :
 soit directement, pour les actes conservés des registres répertoriant uniquement des décès ;
 soit par extrait, pour les actes de décès contenus dans des registres répertoriant à la fois des naissances, des mariages et des décès de moins de 75 ans.
